--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="username" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
   <si>
     <t>null</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>xxxx</t>
   </si>
 </sst>
 </file>
@@ -29,12 +32,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +46,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -51,16 +61,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,7 +108,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,6 +138,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -122,52 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,49 +199,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,133 +355,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,20 +410,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,6 +443,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,30 +485,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -499,148 +495,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,15 +992,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="11.5"/>
+    <col min="1" max="1" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1027,6 +1023,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>12341988924</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1037,14 +1038,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="username" sheetId="1" r:id="rId1"/>
@@ -73,29 +73,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,58 +87,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,9 +100,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +190,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -199,31 +205,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,61 +238,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,121 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +429,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,6 +452,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,30 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -509,163 +529,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,8 +1000,8 @@
   <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1041,7 +1041,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -1052,8 +1052,8 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1107,7 +1107,7 @@
       <c r="B8" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -1127,7 +1127,7 @@
     <col min="1" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -8,51 +8,62 @@
     <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="username" sheetId="1" r:id="rId1"/>
-    <sheet name="password" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="logindata" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>5555</t>
-  </si>
-  <si>
-    <t>444</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>next_url</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>请填写手机号</t>
+  </si>
+  <si>
+    <t>12341988924</t>
+  </si>
+  <si>
+    <t>请填写密码</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>12341988924</t>
+    <t>用户尚未注册</t>
+  </si>
+  <si>
+    <t>不存在的中文字符</t>
   </si>
   <si>
     <t>11111111111</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>333333333333</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>666</t>
+    <t>没有登录权限</t>
   </si>
   <si>
     <t>xxxxx</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>https://tomorning.me:20001/m/layoutmgt/showall</t>
   </si>
 </sst>
 </file>
@@ -60,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -71,6 +82,43 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,14 +127,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,44 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -168,30 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,31 +226,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,11 +443,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,6 +487,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,39 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -534,150 +545,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -998,47 +1015,192 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.6333333333333" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="34.75" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="5" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
@@ -1048,72 +1210,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1025" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -71,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -84,23 +84,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,9 +127,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,39 +156,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,6 +187,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -210,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,15 +219,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,13 +249,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,169 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +440,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,24 +463,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +484,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -502,11 +504,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,38 +546,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,101 +586,101 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +691,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1018,7 +1021,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1061,7 +1064,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2"/>
@@ -1074,10 +1077,10 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1104,10 +1107,10 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1119,7 +1122,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1134,14 +1137,14 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="3"/>
@@ -1203,6 +1206,9 @@
       <c r="G14" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" display="https://tomorning.me:20001/m/layoutmgt/showall" tooltip="https://tomorning.me:20001/m/layoutmgt/showall"/>
+  </hyperlinks>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
